--- a/file.xlsx
+++ b/file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECDC5A0-6572-410E-AD5A-A738E85CC187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD638E7-E29F-4942-A31C-38E751CFCDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11172" yWindow="2424" windowWidth="11868" windowHeight="9936" xr2:uid="{630E1975-AB72-4691-8578-6ECDF91DF22A}"/>
+    <workbookView xWindow="11172" yWindow="2424" windowWidth="11868" windowHeight="9936" xr2:uid="{97F6B33D-4D93-4A41-9D7D-AA63B8363CE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC39DB4D-C4DF-4829-96D7-CFB33FD326A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A3271C-7D3C-4219-A47F-66ECA80B93B7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
